--- a/图片/大论文图片/画图_2014年中国装机容量.xlsx
+++ b/图片/大论文图片/画图_2014年中国装机容量.xlsx
@@ -327,11 +327,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="222161216"/>
-        <c:axId val="222853088"/>
+        <c:axId val="224080264"/>
+        <c:axId val="224102792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="222161216"/>
+        <c:axId val="224080264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -341,7 +341,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222853088"/>
+        <c:crossAx val="224102792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -349,7 +349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222853088"/>
+        <c:axId val="224102792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,7 +360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222161216"/>
+        <c:crossAx val="224080264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -403,10 +403,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="107"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="7"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -441,6 +441,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -540,6 +549,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
@@ -549,6 +567,25 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -656,11 +693,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="328576424"/>
-        <c:axId val="328578776"/>
+        <c:axId val="224137736"/>
+        <c:axId val="224142216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="328576424"/>
+        <c:axId val="224137736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -670,7 +707,39 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="328578776"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224142216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -678,21 +747,77 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328578776"/>
+        <c:axId val="224142216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="328576424"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224137736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -707,16 +832,56 @@
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:ln>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
+      <a:prstDash val="solid"/>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
@@ -972,11 +1137,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="326483936"/>
-        <c:axId val="326482368"/>
+        <c:axId val="224186544"/>
+        <c:axId val="224351440"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="326483936"/>
+        <c:axId val="224186544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,14 +1184,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326482368"/>
+        <c:crossAx val="224351440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="326482368"/>
+        <c:axId val="224351440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,7 +1242,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326483936"/>
+        <c:crossAx val="224186544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1159,6 +1324,43 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1199,6 +1401,446 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="107">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1" mods="ignoreCSTransforms">
+      <cs:styleClr val="0">
+        <a:shade val="25000"/>
+      </cs:styleClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1" mods="ignoreCSTransforms">
+      <cs:styleClr val="0">
+        <a:tint val="25000"/>
+      </cs:styleClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1737,16 +2379,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2087,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
